--- a/Testprotokoll.xlsx
+++ b/Testprotokoll.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manuel\Source\Repos\AutohausVerwaltung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manuel\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="53">
   <si>
     <t>Testfall</t>
   </si>
@@ -174,13 +174,29 @@
   </si>
   <si>
     <t>userfriendly fehlermeldung wenn nicht alle felder ausgefüllt werden</t>
+  </si>
+  <si>
+    <t>Getestet</t>
+  </si>
+  <si>
+    <t>Erfolgreich 1. Test</t>
+  </si>
+  <si>
+    <t>Erfolgreich gesamt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,10 +234,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -230,11 +247,235 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Prozent" xfId="1" builtinId="5"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="115">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -243,46 +484,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -290,46 +491,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -353,6 +514,843 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -378,10 +1376,28 @@
   <tableColumns count="4">
     <tableColumn id="1" name="Testfall"/>
     <tableColumn id="2" name="Beschreibung"/>
-    <tableColumn id="3" name="Testlauf 1" dataDxfId="13"/>
+    <tableColumn id="3" name="Testlauf 1" dataDxfId="114"/>
     <tableColumn id="4" name="Testlauf 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="G4:I5" totalsRowShown="0" dataDxfId="0" dataCellStyle="Prozent">
+  <autoFilter ref="G4:I5"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Getestet" dataDxfId="3" dataCellStyle="Prozent">
+      <calculatedColumnFormula>(COUNTA(Tabelle4[Testlauf 1])-COUNTIF(Tabelle4[Testlauf 1],"a"))/COUNTA(Tabelle4[Testlauf 1])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" name="Erfolgreich 1. Test" dataDxfId="2" dataCellStyle="Prozent">
+      <calculatedColumnFormula>COUNTIF(Tabelle4[Testlauf 1],"j")/COUNTA(Tabelle4[Testlauf 1])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" name="Erfolgreich gesamt" dataDxfId="1" dataCellStyle="Prozent">
+      <calculatedColumnFormula>(COUNTIFS(Tabelle4[Testlauf 1],"j")+COUNTIF(Tabelle4[Testlauf 2],"j"))/COUNTA(Tabelle4[Testlauf 1])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -684,8 +1700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -693,6 +1709,9 @@
     <col min="2" max="2" width="29.85546875" customWidth="1"/>
     <col min="3" max="3" width="65.28515625" customWidth="1"/>
     <col min="4" max="5" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" customWidth="1"/>
+    <col min="9" max="9" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.25">
@@ -727,6 +1746,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
+      <c r="G4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
@@ -735,6 +1763,18 @@
       <c r="D5" t="s">
         <v>4</v>
       </c>
+      <c r="G5" s="6">
+        <f>(COUNTA(Tabelle4[Testlauf 1])-COUNTIF(Tabelle4[Testlauf 1],"a"))/COUNTA(Tabelle4[Testlauf 1])</f>
+        <v>1</v>
+      </c>
+      <c r="H5" s="6">
+        <f>COUNTIF(Tabelle4[Testlauf 1],"j")/COUNTA(Tabelle4[Testlauf 1])</f>
+        <v>0.8214285714285714</v>
+      </c>
+      <c r="I5" s="6">
+        <f>(COUNTIFS(Tabelle4[Testlauf 1],"j")+COUNTIF(Tabelle4[Testlauf 2],"j"))/COUNTA(Tabelle4[Testlauf 1])</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
@@ -792,7 +1832,7 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>15</v>
       </c>
@@ -1047,18 +2087,40 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E4:E5 E7:E23 E25:E28">
-    <cfRule type="expression" dxfId="10" priority="17">
+    <cfRule type="expression" dxfId="34" priority="21">
       <formula>IF(D4="n",IF(E4="",TRUE,FALSE),FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30:E34">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="33" priority="10">
       <formula>IF(D30="n",IF(E30="",TRUE,FALSE),FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36:E38">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="32" priority="5">
       <formula>IF(D36="n",IF(E36="",TRUE,FALSE),FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:I5">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="between">
+      <formula>0.75</formula>
+      <formula>0.99</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
+      <formula>0.75</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
@@ -1071,14 +2133,15 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="20" operator="containsText" id="{D55F77DA-2ADF-4B31-9DC8-BEE90C14F9C4}">
+          <x14:cfRule type="containsText" priority="24" operator="containsText" id="{D55F77DA-2ADF-4B31-9DC8-BEE90C14F9C4}">
             <xm:f>NOT(ISERROR(SEARCH($I$1,D4)))</xm:f>
             <xm:f>$I$1</xm:f>
             <x14:dxf>
@@ -1092,7 +2155,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="21" operator="containsText" id="{D78D8F9E-C4DE-4D4E-B051-381EEE95BBB3}">
+          <x14:cfRule type="containsText" priority="25" operator="containsText" id="{D78D8F9E-C4DE-4D4E-B051-381EEE95BBB3}">
             <xm:f>NOT(ISERROR(SEARCH($H$1,D4)))</xm:f>
             <xm:f>$H$1</xm:f>
             <x14:dxf>
@@ -1109,7 +2172,7 @@
           <xm:sqref>D4:E5 E6 D7:E23 D25:E28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="12" operator="containsText" id="{BAEFD1A8-75CD-4451-B51A-6FBB659B8C46}">
+          <x14:cfRule type="containsText" priority="16" operator="containsText" id="{BAEFD1A8-75CD-4451-B51A-6FBB659B8C46}">
             <xm:f>NOT(ISERROR(SEARCH($I$1,D30)))</xm:f>
             <xm:f>$I$1</xm:f>
             <x14:dxf>
@@ -1123,7 +2186,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="13" operator="containsText" id="{B93D1AFB-0444-4974-B26A-973C4E60AE7C}">
+          <x14:cfRule type="containsText" priority="17" operator="containsText" id="{B93D1AFB-0444-4974-B26A-973C4E60AE7C}">
             <xm:f>NOT(ISERROR(SEARCH($H$1,D30)))</xm:f>
             <xm:f>$H$1</xm:f>
             <x14:dxf>
@@ -1140,7 +2203,7 @@
           <xm:sqref>D30:D34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="7" operator="containsText" id="{EB87A478-0565-43D3-AE4E-E627023243B7}">
+          <x14:cfRule type="containsText" priority="11" operator="containsText" id="{EB87A478-0565-43D3-AE4E-E627023243B7}">
             <xm:f>NOT(ISERROR(SEARCH($I$1,E30)))</xm:f>
             <xm:f>$I$1</xm:f>
             <x14:dxf>
@@ -1154,7 +2217,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="8" operator="containsText" id="{EF12992C-0A80-466F-8475-2BD223CB6B19}">
+          <x14:cfRule type="containsText" priority="12" operator="containsText" id="{EF12992C-0A80-466F-8475-2BD223CB6B19}">
             <xm:f>NOT(ISERROR(SEARCH($H$1,E30)))</xm:f>
             <xm:f>$H$1</xm:f>
             <x14:dxf>
@@ -1171,7 +2234,7 @@
           <xm:sqref>E30:E34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="4" operator="containsText" id="{F3D582D0-5229-4B91-8313-BE9C55797B02}">
+          <x14:cfRule type="containsText" priority="8" operator="containsText" id="{F3D582D0-5229-4B91-8313-BE9C55797B02}">
             <xm:f>NOT(ISERROR(SEARCH($I$1,D36)))</xm:f>
             <xm:f>$I$1</xm:f>
             <x14:dxf>
@@ -1185,7 +2248,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="5" operator="containsText" id="{E8402A20-3EB5-4B60-BF5A-76EB71506A95}">
+          <x14:cfRule type="containsText" priority="9" operator="containsText" id="{E8402A20-3EB5-4B60-BF5A-76EB71506A95}">
             <xm:f>NOT(ISERROR(SEARCH($H$1,D36)))</xm:f>
             <xm:f>$H$1</xm:f>
             <x14:dxf>
@@ -1202,7 +2265,7 @@
           <xm:sqref>D36:D38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{E0570A1D-8732-4736-96E7-10A233F93F74}">
+          <x14:cfRule type="containsText" priority="6" operator="containsText" id="{E0570A1D-8732-4736-96E7-10A233F93F74}">
             <xm:f>NOT(ISERROR(SEARCH($I$1,E36)))</xm:f>
             <xm:f>$I$1</xm:f>
             <x14:dxf>
@@ -1216,7 +2279,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{ABE808D4-6520-4DBC-B245-4B9CA1E0421F}">
+          <x14:cfRule type="containsText" priority="7" operator="containsText" id="{ABE808D4-6520-4DBC-B245-4B9CA1E0421F}">
             <xm:f>NOT(ISERROR(SEARCH($H$1,E36)))</xm:f>
             <xm:f>$H$1</xm:f>
             <x14:dxf>

--- a/Testprotokoll.xlsx
+++ b/Testprotokoll.xlsx
@@ -47,9 +47,6 @@
     <t>Benutzerverwaltung</t>
   </si>
   <si>
-    <t>Kunden Anzeigen</t>
-  </si>
-  <si>
     <t>Kunde Erstellen</t>
   </si>
   <si>
@@ -71,48 +68,18 @@
     <t>a</t>
   </si>
   <si>
-    <t>nicht alle felder füllen</t>
-  </si>
-  <si>
-    <t>abbrechen</t>
-  </si>
-  <si>
     <t>Anzeige Anmeldedaten</t>
   </si>
   <si>
-    <t>Anzeigen von Username und passwort</t>
-  </si>
-  <si>
-    <t>Kunde wird nicht erstellt bei abbruch</t>
-  </si>
-  <si>
-    <t>Change button vorhanden</t>
-  </si>
-  <si>
     <t>Kundendaten richtig angezeigt</t>
   </si>
   <si>
-    <t>id nicht editable</t>
-  </si>
-  <si>
-    <t>Kunde Details anzeigen/Ändern</t>
-  </si>
-  <si>
     <t>Änderungen werden gespeichert</t>
   </si>
   <si>
-    <t>leere felder Fehlermeldung</t>
-  </si>
-  <si>
-    <t>falsche datentypen Fehlermeldung</t>
-  </si>
-  <si>
     <t>Rechnungen anzeigen</t>
   </si>
   <si>
-    <t>Alle rechnungen</t>
-  </si>
-  <si>
     <t>Anzeigen aller Rechnungen des Kunden</t>
   </si>
   <si>
@@ -122,9 +89,6 @@
     <t>Wenn PDF vorhanden dann textbox checked</t>
   </si>
   <si>
-    <t>Austellen button</t>
-  </si>
-  <si>
     <t>PDF wird erstellt und angezeigt</t>
   </si>
   <si>
@@ -137,12 +101,6 @@
     <t>Kundendaten nicht editable</t>
   </si>
   <si>
-    <t>Delete button vorhanden</t>
-  </si>
-  <si>
-    <t>Sind sie sicher Abfrage bei delete</t>
-  </si>
-  <si>
     <t>Rechnungen ausstellen</t>
   </si>
   <si>
@@ -161,21 +119,12 @@
     <t>Settings updated wenn geändert</t>
   </si>
   <si>
-    <t xml:space="preserve"> --configure für einstellungen</t>
-  </si>
-  <si>
     <t>nach Id</t>
   </si>
   <si>
-    <t>falsche datentypen (Geburtsdatum)</t>
-  </si>
-  <si>
     <t>userfriendly Fehlermeldung bei eingabe von falschen Datentypen</t>
   </si>
   <si>
-    <t>userfriendly fehlermeldung wenn nicht alle felder ausgefüllt werden</t>
-  </si>
-  <si>
     <t>Getestet</t>
   </si>
   <si>
@@ -183,13 +132,64 @@
   </si>
   <si>
     <t>Erfolgreich gesamt</t>
+  </si>
+  <si>
+    <t>Kunden anzeigen</t>
+  </si>
+  <si>
+    <t>nicht alle Felder füllen</t>
+  </si>
+  <si>
+    <t>userfriendly Fehlermeldung wenn nicht alle Felder ausgefüllt werden</t>
+  </si>
+  <si>
+    <t>falsche Datentypen (Geburtsdatum)</t>
+  </si>
+  <si>
+    <t>Abbrechen</t>
+  </si>
+  <si>
+    <t>Kunde wird nicht erstellt bei Abbruch</t>
+  </si>
+  <si>
+    <t>Anzeigen von username und password</t>
+  </si>
+  <si>
+    <t>Change Button vorhanden</t>
+  </si>
+  <si>
+    <t>Id nicht editable</t>
+  </si>
+  <si>
+    <t>leere Felder Fehlermeldung</t>
+  </si>
+  <si>
+    <t>falsche Datentypen Fehlermeldung</t>
+  </si>
+  <si>
+    <t>Kunde Details anzeigen/ändern</t>
+  </si>
+  <si>
+    <t>Alle Rechnungen</t>
+  </si>
+  <si>
+    <t>Austellen Button</t>
+  </si>
+  <si>
+    <t>Delete Button vorhanden</t>
+  </si>
+  <si>
+    <t>Sind sie sicher Abfrage bei Delete</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> --configure für Einstellungen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,6 +198,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -238,7 +246,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -248,6 +256,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -1700,8 +1709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1722,7 +1731,7 @@
         <v>5</v>
       </c>
       <c r="J1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
@@ -1747,18 +1756,18 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="I4" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
@@ -1778,7 +1787,7 @@
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="4"/>
@@ -1786,7 +1795,7 @@
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
         <v>4</v>
@@ -1794,7 +1803,7 @@
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
         <v>4</v>
@@ -1802,7 +1811,7 @@
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
         <v>4</v>
@@ -1810,7 +1819,7 @@
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
         <v>4</v>
@@ -1818,7 +1827,7 @@
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>4</v>
@@ -1826,7 +1835,7 @@
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -1834,10 +1843,10 @@
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="D13" t="s">
         <v>5</v>
@@ -1848,10 +1857,10 @@
     </row>
     <row r="14" spans="2:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
         <v>5</v>
@@ -1860,23 +1869,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="D16" t="s">
         <v>4</v>
@@ -1884,7 +1893,7 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -1892,7 +1901,7 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="D18" t="s">
         <v>4</v>
@@ -1900,7 +1909,7 @@
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D19" t="s">
         <v>4</v>
@@ -1908,7 +1917,7 @@
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="D20" t="s">
         <v>4</v>
@@ -1916,7 +1925,7 @@
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D21" t="s">
         <v>4</v>
@@ -1924,7 +1933,7 @@
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D22" t="s">
         <v>5</v>
@@ -1935,7 +1944,7 @@
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="D23" t="s">
         <v>5</v>
@@ -1946,7 +1955,7 @@
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="4"/>
@@ -1954,10 +1963,10 @@
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D25" t="s">
         <v>4</v>
@@ -1965,10 +1974,10 @@
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D26" t="s">
         <v>4</v>
@@ -1976,10 +1985,10 @@
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D27" t="s">
         <v>4</v>
@@ -1987,10 +1996,10 @@
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D28" t="s">
         <v>5</v>
@@ -2001,7 +2010,7 @@
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="4"/>
@@ -2009,7 +2018,7 @@
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D30" t="s">
         <v>4</v>
@@ -2017,7 +2026,7 @@
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D31" t="s">
         <v>4</v>
@@ -2025,7 +2034,7 @@
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="D32" t="s">
         <v>4</v>
@@ -2033,7 +2042,7 @@
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D33" t="s">
         <v>4</v>
@@ -2041,10 +2050,10 @@
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D34" t="s">
         <v>4</v>
@@ -2052,7 +2061,7 @@
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="4"/>
@@ -2060,7 +2069,7 @@
     </row>
     <row r="36" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D36" t="s">
         <v>4</v>
@@ -2068,10 +2077,10 @@
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C37" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D37" t="s">
         <v>4</v>
@@ -2079,8 +2088,9 @@
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>44</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C38" s="7"/>
       <c r="D38" t="s">
         <v>4</v>
       </c>
